--- a/static/data/timeline.xlsx
+++ b/static/data/timeline.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -132,10 +132,19 @@
     <t>https://el.wikipedia.org/wiki/%CE%91%CF%81%CF%87%CE%B9%CE%BC%CE%AE%CE%B4%CE%B7%CF%82</t>
   </si>
   <si>
+    <t>Κόσκινο του Ερατοσθένη</t>
+  </si>
+  <si>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>~240 π.Χ.</t>
+  </si>
+  <si>
+    <t>Αλγόριθμος για την εύρεση όλων των πρώτων αριθμών μέχρι κάποιον ακέραιο.</t>
+  </si>
+  <si>
     <t>Liber Abaci</t>
-  </si>
-  <si>
-    <t>milestone</t>
   </si>
   <si>
     <t>1202 μ.Χ.</t>
@@ -203,6 +212,37 @@
   </si>
   <si>
     <t>https://el.wikipedia.org/wiki/%CE%93%CE%BA%CF%8C%CF%84%CF%86%CF%81%CE%B9%CE%BD%CF%84_%CE%92%CE%AF%CE%BB%CF%87%CE%B5%CE%BB%CE%BC_%CE%9B%CE%AC%CE%B9%CE%BC%CF%80%CE%BD%CE%B9%CF%84%CF%82</t>
+  </si>
+  <si>
+    <t>Οι γέφυρες του Königsberg</t>
+  </si>
+  <si>
+    <t>1736 μ.Χ.</t>
+  </si>
+  <si>
+    <t>Το διάσημο ιστορικό πρόβλημα «των Επτά Γεφυρών της Κένιγκσμπεργκ» αφορά την ύπαρξη ή μη μιας διαδρομής που να διασχίζει κάθε μία από τις επτά γέφυρες της πόλης ακριβώς μία φορά, επιστρέφοντας ή όχι στο σημείο εκκίνησης, και αποτέλεσε τον κινητήριο μοχλό για τη γέννηση της Θεωρίας Γραφημάτων από τον Λέοναρντ Όιλερ το 1736.</t>
+  </si>
+  <si>
+    <t>konigsberg.png</t>
+  </si>
+  <si>
+    <t>Χάρτης της Κένιγκσμπεργκ στην εποχή του Όιλερ, που δείχνει τη διάταξη των επτά γεφυρών, με έμφαση στον ποταμό Πρέγκελ και τις γέφυρες.</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">By Twotwos - Own work based on: Konigsberg bridges.png. This file was derived from: Image-Koenigsberg, Map by Merian-Erben 1652.jpg, CC BY-SA 4.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://commons.wikimedia.org/w/index.php?curid=175193733</t>
+    </r>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Seven_Bridges_of_K%C3%B6nigsberg</t>
   </si>
   <si>
     <t>Λέοναρντ Όιλερ</t>
@@ -702,247 +742,292 @@
         <v>34</v>
       </c>
       <c r="C4" s="3">
-        <v>1202.0</v>
+        <v>-240.0</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" ht="46.5" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1202.0</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1700.0</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="3">
-        <v>1643.0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1727.0</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" ht="46.5" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" ht="53.25" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3">
-        <v>1690.0</v>
+        <v>1700.0</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1643.0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1727.0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="3">
-        <v>1646.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1716.0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="N6" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" ht="53.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3">
-        <v>1750.0</v>
+        <v>1690.0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3">
-        <v>1707.0</v>
+        <v>1646.0</v>
       </c>
       <c r="F7" s="3">
-        <v>1783.0</v>
+        <v>1716.0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" ht="53.25" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" ht="38.25" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="3">
-        <v>1821.0</v>
+        <v>1736.0</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="L8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" ht="34.5" customHeight="1">
+      <c r="M8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" ht="53.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3">
-        <v>1830.0</v>
+        <v>1750.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3">
-        <v>1815.0</v>
+        <v>1707.0</v>
       </c>
       <c r="F9" s="3">
-        <v>1852.0</v>
+        <v>1783.0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="J9" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="50.25" customHeight="1">
+    <row r="10" ht="38.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="3">
-        <v>1931.0</v>
+        <v>1821.0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" ht="40.5" customHeight="1">
+    <row r="11" ht="34.5" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3">
-        <v>1936.0</v>
+        <v>1830.0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3">
-        <v>1912.0</v>
+        <v>1815.0</v>
       </c>
       <c r="F11" s="3">
-        <v>1954.0</v>
+        <v>1852.0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+    <row r="12" ht="50.25" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1931.0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" ht="40.5" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1936.0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1912.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1954.0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="8"/>
@@ -6866,12 +6951,24 @@
       <c r="G1000" s="9"/>
       <c r="H1000" s="10"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="9"/>
+      <c r="G1001" s="9"/>
+      <c r="H1001" s="10"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="9"/>
+      <c r="G1002" s="9"/>
+      <c r="H1002" s="10"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B1000">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B1002">
       <formula1>"milestone,person"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G1000">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G1002">
       <formula1>"Προελληνικά Μαθηματικά,Αρχαία Ελληνικά Μαθηματικά,Ελληνιστική και Ρωμαϊκή περίοδος,Ισλαμικός Χρυσός Αιώνας,Αναγέννηση &amp; Πρώιμη Νεωτερικότητα,Γέννηση της Ανάλυσης,Αυστηροποίηση &amp; Σύγχρονη Άλγεβρα,Θεμέλια των Μαθηματικών,Λογική, Υπολογισιμότητα &amp; Πληροφορικ"&amp;"ή,Σύγχρονα Μαθηματικά"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6883,16 +6980,18 @@
     <hyperlink r:id="rId5" ref="I3"/>
     <hyperlink r:id="rId6" ref="M3"/>
     <hyperlink r:id="rId7" ref="N3"/>
-    <hyperlink r:id="rId8" ref="J5"/>
-    <hyperlink r:id="rId9" ref="M5"/>
-    <hyperlink r:id="rId10" ref="N5"/>
-    <hyperlink r:id="rId11" ref="I6"/>
-    <hyperlink r:id="rId12" ref="N6"/>
-    <hyperlink r:id="rId13" ref="I7"/>
-    <hyperlink r:id="rId14" ref="J7"/>
+    <hyperlink r:id="rId8" ref="J6"/>
+    <hyperlink r:id="rId9" ref="M6"/>
+    <hyperlink r:id="rId10" ref="N6"/>
+    <hyperlink r:id="rId11" ref="I7"/>
+    <hyperlink r:id="rId12" ref="N7"/>
+    <hyperlink r:id="rId13" ref="M8"/>
+    <hyperlink r:id="rId14" ref="N8"/>
     <hyperlink r:id="rId15" ref="I9"/>
-    <hyperlink r:id="rId16" ref="I11"/>
+    <hyperlink r:id="rId16" ref="J9"/>
+    <hyperlink r:id="rId17" ref="I11"/>
+    <hyperlink r:id="rId18" ref="I13"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>